--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Vtn-Itgav.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Vtn-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.69605100093472</v>
+        <v>3.94917</v>
       </c>
       <c r="H2">
-        <v>3.69605100093472</v>
+        <v>11.84751</v>
       </c>
       <c r="I2">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="J2">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N2">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O2">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P2">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q2">
-        <v>17.24947940747524</v>
+        <v>39.49624286189</v>
       </c>
       <c r="R2">
-        <v>17.24947940747524</v>
+        <v>355.46618575701</v>
       </c>
       <c r="S2">
-        <v>0.002389843421565441</v>
+        <v>0.004875294589969987</v>
       </c>
       <c r="T2">
-        <v>0.002389843421565441</v>
+        <v>0.004875294589969988</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.69605100093472</v>
+        <v>3.94917</v>
       </c>
       <c r="H3">
-        <v>3.69605100093472</v>
+        <v>11.84751</v>
       </c>
       <c r="I3">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="J3">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N3">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O3">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P3">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q3">
-        <v>261.9908438352593</v>
+        <v>281.89604208223</v>
       </c>
       <c r="R3">
-        <v>261.9908438352593</v>
+        <v>2537.06437874007</v>
       </c>
       <c r="S3">
-        <v>0.03629773860762075</v>
+        <v>0.03479637933418567</v>
       </c>
       <c r="T3">
-        <v>0.03629773860762075</v>
+        <v>0.03479637933418568</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.69605100093472</v>
+        <v>3.94917</v>
       </c>
       <c r="H4">
-        <v>3.69605100093472</v>
+        <v>11.84751</v>
       </c>
       <c r="I4">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="J4">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N4">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O4">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P4">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q4">
-        <v>233.0855706176434</v>
+        <v>275.66733349122</v>
       </c>
       <c r="R4">
-        <v>233.0855706176434</v>
+        <v>2481.00600142098</v>
       </c>
       <c r="S4">
-        <v>0.03229303357184239</v>
+        <v>0.03402752672705449</v>
       </c>
       <c r="T4">
-        <v>0.03229303357184239</v>
+        <v>0.0340275267270545</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.69605100093472</v>
+        <v>3.94917</v>
       </c>
       <c r="H5">
-        <v>3.69605100093472</v>
+        <v>11.84751</v>
       </c>
       <c r="I5">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="J5">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N5">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O5">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P5">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q5">
-        <v>291.1976822867967</v>
+        <v>315.00089161135</v>
       </c>
       <c r="R5">
-        <v>291.1976822867967</v>
+        <v>2835.00802450215</v>
       </c>
       <c r="S5">
-        <v>0.04034422424868206</v>
+        <v>0.0388827400134902</v>
       </c>
       <c r="T5">
-        <v>0.04034422424868206</v>
+        <v>0.03888274001349021</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.69605100093472</v>
+        <v>3.94917</v>
       </c>
       <c r="H6">
-        <v>3.69605100093472</v>
+        <v>11.84751</v>
       </c>
       <c r="I6">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="J6">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N6">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O6">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P6">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q6">
-        <v>111.3853323232822</v>
+        <v>119.66875374557</v>
       </c>
       <c r="R6">
-        <v>111.3853323232822</v>
+        <v>1077.01878371013</v>
       </c>
       <c r="S6">
-        <v>0.01543197318733682</v>
+        <v>0.01477154244175391</v>
       </c>
       <c r="T6">
-        <v>0.01543197318733682</v>
+        <v>0.01477154244175391</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.69605100093472</v>
+        <v>3.94917</v>
       </c>
       <c r="H7">
-        <v>3.69605100093472</v>
+        <v>11.84751</v>
       </c>
       <c r="I7">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="J7">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N7">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O7">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P7">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q7">
-        <v>70.89628817140766</v>
+        <v>80.41043521228001</v>
       </c>
       <c r="R7">
-        <v>70.89628817140766</v>
+        <v>723.69391691052</v>
       </c>
       <c r="S7">
-        <v>0.009822385006380057</v>
+        <v>0.009925616498217001</v>
       </c>
       <c r="T7">
-        <v>0.009822385006380057</v>
+        <v>0.009925616498217001</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.73637506812955</v>
+        <v>2.958532</v>
       </c>
       <c r="H8">
-        <v>2.73637506812955</v>
+        <v>8.875596</v>
       </c>
       <c r="I8">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="J8">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N8">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O8">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P8">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q8">
-        <v>12.77066939197872</v>
+        <v>29.58872329797733</v>
       </c>
       <c r="R8">
-        <v>12.77066939197872</v>
+        <v>266.298509681796</v>
       </c>
       <c r="S8">
-        <v>0.00176932297575203</v>
+        <v>0.003652340885262748</v>
       </c>
       <c r="T8">
-        <v>0.00176932297575203</v>
+        <v>0.003652340885262749</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.73637506812955</v>
+        <v>2.958532</v>
       </c>
       <c r="H9">
-        <v>2.73637506812955</v>
+        <v>8.875596</v>
       </c>
       <c r="I9">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="J9">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N9">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O9">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P9">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q9">
-        <v>193.9651841838012</v>
+        <v>211.1832261395747</v>
       </c>
       <c r="R9">
-        <v>193.9651841838012</v>
+        <v>1900.649035256172</v>
       </c>
       <c r="S9">
-        <v>0.02687306720882856</v>
+        <v>0.02606780709473814</v>
       </c>
       <c r="T9">
-        <v>0.02687306720882856</v>
+        <v>0.02606780709473814</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.73637506812955</v>
+        <v>2.958532</v>
       </c>
       <c r="H10">
-        <v>2.73637506812955</v>
+        <v>8.875596</v>
       </c>
       <c r="I10">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="J10">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N10">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O10">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P10">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q10">
-        <v>172.5651361460025</v>
+        <v>206.516971284712</v>
       </c>
       <c r="R10">
-        <v>172.5651361460025</v>
+        <v>1858.652741562408</v>
       </c>
       <c r="S10">
-        <v>0.02390817981621807</v>
+        <v>0.02549181896521192</v>
       </c>
       <c r="T10">
-        <v>0.02390817981621807</v>
+        <v>0.02549181896521192</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.73637506812955</v>
+        <v>2.958532</v>
       </c>
       <c r="H11">
-        <v>2.73637506812955</v>
+        <v>8.875596</v>
       </c>
       <c r="I11">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="J11">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N11">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O11">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P11">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q11">
-        <v>215.5884963452034</v>
+        <v>235.9838188431267</v>
       </c>
       <c r="R11">
-        <v>215.5884963452034</v>
+        <v>2123.85436958814</v>
       </c>
       <c r="S11">
-        <v>0.02986888691449391</v>
+        <v>0.02912911588450008</v>
       </c>
       <c r="T11">
-        <v>0.02986888691449391</v>
+        <v>0.02912911588450008</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.73637506812955</v>
+        <v>2.958532</v>
       </c>
       <c r="H12">
-        <v>2.73637506812955</v>
+        <v>8.875596</v>
       </c>
       <c r="I12">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="J12">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N12">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O12">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P12">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q12">
-        <v>82.46424257881533</v>
+        <v>89.65018911730533</v>
       </c>
       <c r="R12">
-        <v>82.46424257881533</v>
+        <v>806.851702055748</v>
       </c>
       <c r="S12">
-        <v>0.01142507683773652</v>
+        <v>0.01106614326637929</v>
       </c>
       <c r="T12">
-        <v>0.01142507683773652</v>
+        <v>0.01106614326637929</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.73637506812955</v>
+        <v>2.958532</v>
       </c>
       <c r="H13">
-        <v>2.73637506812955</v>
+        <v>8.875596</v>
       </c>
       <c r="I13">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="J13">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N13">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O13">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P13">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q13">
-        <v>52.48813810364254</v>
+        <v>60.23970751055467</v>
       </c>
       <c r="R13">
-        <v>52.48813810364254</v>
+        <v>542.157367594992</v>
       </c>
       <c r="S13">
-        <v>0.007272012597832281</v>
+        <v>0.007435803986585267</v>
       </c>
       <c r="T13">
-        <v>0.007272012597832281</v>
+        <v>0.007435803986585267</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>20.6291693560275</v>
+        <v>0.06096333333333333</v>
       </c>
       <c r="H14">
-        <v>20.6291693560275</v>
+        <v>0.18289</v>
       </c>
       <c r="I14">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="J14">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N14">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O14">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P14">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q14">
-        <v>96.27638577230785</v>
+        <v>0.6097034614877778</v>
       </c>
       <c r="R14">
-        <v>96.27638577230785</v>
+        <v>5.48733115339</v>
       </c>
       <c r="S14">
-        <v>0.01333869166453432</v>
+        <v>7.525991770081738E-05</v>
       </c>
       <c r="T14">
-        <v>0.01333869166453432</v>
+        <v>7.525991770081739E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>20.6291693560275</v>
+        <v>0.06096333333333333</v>
       </c>
       <c r="H15">
-        <v>20.6291693560275</v>
+        <v>0.18289</v>
       </c>
       <c r="I15">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="J15">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N15">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O15">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P15">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q15">
-        <v>1462.277843525237</v>
+        <v>4.351628919192222</v>
       </c>
       <c r="R15">
-        <v>1462.277843525237</v>
+        <v>39.16466027273</v>
       </c>
       <c r="S15">
-        <v>0.2025924958254253</v>
+        <v>0.0005371516729193913</v>
       </c>
       <c r="T15">
-        <v>0.2025924958254253</v>
+        <v>0.0005371516729193914</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>20.6291693560275</v>
+        <v>0.06096333333333333</v>
       </c>
       <c r="H16">
-        <v>20.6291693560275</v>
+        <v>0.18289</v>
       </c>
       <c r="I16">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="J16">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N16">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O16">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P16">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q16">
-        <v>1300.945714629385</v>
+        <v>4.255476350913334</v>
       </c>
       <c r="R16">
-        <v>1300.945714629385</v>
+        <v>38.29928715822</v>
       </c>
       <c r="S16">
-        <v>0.1802406023090438</v>
+        <v>0.0005252828959934193</v>
       </c>
       <c r="T16">
-        <v>0.1802406023090438</v>
+        <v>0.0005252828959934193</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -1470,49 +1470,49 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>20.6291693560275</v>
+        <v>0.06096333333333333</v>
       </c>
       <c r="H17">
-        <v>20.6291693560275</v>
+        <v>0.18289</v>
       </c>
       <c r="I17">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="J17">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N17">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O17">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P17">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q17">
-        <v>1625.293131089864</v>
+        <v>4.862668448205556</v>
       </c>
       <c r="R17">
-        <v>1625.293131089864</v>
+        <v>43.76401603385001</v>
       </c>
       <c r="S17">
-        <v>0.2251775839546412</v>
+        <v>0.0006002328186316975</v>
       </c>
       <c r="T17">
-        <v>0.2251775839546412</v>
+        <v>0.0006002328186316976</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -1532,49 +1532,49 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>20.6291693560275</v>
+        <v>0.06096333333333333</v>
       </c>
       <c r="H18">
-        <v>20.6291693560275</v>
+        <v>0.18289</v>
       </c>
       <c r="I18">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="J18">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N18">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O18">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P18">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q18">
-        <v>621.6870069415411</v>
+        <v>1.847326431674444</v>
       </c>
       <c r="R18">
-        <v>621.6870069415411</v>
+        <v>16.62593788507</v>
       </c>
       <c r="S18">
-        <v>0.08613214165571234</v>
+        <v>0.000228028285873772</v>
       </c>
       <c r="T18">
-        <v>0.08613214165571234</v>
+        <v>0.000228028285873772</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.18289</v>
+      </c>
+      <c r="I19">
+        <v>0.002119177323057615</v>
+      </c>
+      <c r="J19">
+        <v>0.002119177323057615</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>20.36135066666667</v>
+      </c>
+      <c r="N19">
+        <v>61.084052</v>
+      </c>
+      <c r="O19">
+        <v>0.07230245920027331</v>
+      </c>
+      <c r="P19">
+        <v>0.07230245920027331</v>
+      </c>
+      <c r="Q19">
+        <v>1.241295807808889</v>
+      </c>
+      <c r="R19">
+        <v>11.17166227028</v>
+      </c>
+      <c r="S19">
+        <v>0.0001532217319385177</v>
+      </c>
+      <c r="T19">
+        <v>0.0001532217319385177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>21.79878733333334</v>
+      </c>
+      <c r="H20">
+        <v>65.39636200000001</v>
+      </c>
+      <c r="I20">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="J20">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>10.00115033333333</v>
+      </c>
+      <c r="N20">
+        <v>30.003451</v>
+      </c>
+      <c r="O20">
+        <v>0.03551374247070085</v>
+      </c>
+      <c r="P20">
+        <v>0.03551374247070086</v>
+      </c>
+      <c r="Q20">
+        <v>218.0129492050291</v>
+      </c>
+      <c r="R20">
+        <v>1962.116542845263</v>
+      </c>
+      <c r="S20">
+        <v>0.0269108470777673</v>
+      </c>
+      <c r="T20">
+        <v>0.02691084707776731</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>21.79878733333334</v>
+      </c>
+      <c r="H21">
+        <v>65.39636200000001</v>
+      </c>
+      <c r="I21">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="J21">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>71.38108566666666</v>
+      </c>
+      <c r="N21">
+        <v>214.143257</v>
+      </c>
+      <c r="O21">
+        <v>0.253471791659403</v>
+      </c>
+      <c r="P21">
+        <v>0.2534717916594031</v>
+      </c>
+      <c r="Q21">
+        <v>1556.021106070115</v>
+      </c>
+      <c r="R21">
+        <v>14004.18995463104</v>
+      </c>
+      <c r="S21">
+        <v>0.1920704535575598</v>
+      </c>
+      <c r="T21">
+        <v>0.1920704535575599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>20.6291693560275</v>
-      </c>
-      <c r="H19">
-        <v>20.6291693560275</v>
-      </c>
-      <c r="I19">
-        <v>0.7623042556057111</v>
-      </c>
-      <c r="J19">
-        <v>0.7623042556057111</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>19.1816314638186</v>
-      </c>
-      <c r="N19">
-        <v>19.1816314638186</v>
-      </c>
-      <c r="O19">
-        <v>0.07191713780056665</v>
-      </c>
-      <c r="P19">
-        <v>0.07191713780056665</v>
-      </c>
-      <c r="Q19">
-        <v>395.7011239920196</v>
-      </c>
-      <c r="R19">
-        <v>395.7011239920196</v>
-      </c>
-      <c r="S19">
-        <v>0.05482274019635431</v>
-      </c>
-      <c r="T19">
-        <v>0.05482274019635431</v>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>21.79878733333334</v>
+      </c>
+      <c r="H22">
+        <v>65.39636200000001</v>
+      </c>
+      <c r="I22">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="J22">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>69.803866</v>
+      </c>
+      <c r="N22">
+        <v>209.411598</v>
+      </c>
+      <c r="O22">
+        <v>0.2478711386150191</v>
+      </c>
+      <c r="P22">
+        <v>0.2478711386150191</v>
+      </c>
+      <c r="Q22">
+        <v>1521.639629978498</v>
+      </c>
+      <c r="R22">
+        <v>13694.75666980648</v>
+      </c>
+      <c r="S22">
+        <v>0.1878265100267593</v>
+      </c>
+      <c r="T22">
+        <v>0.1878265100267593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>21.79878733333334</v>
+      </c>
+      <c r="H23">
+        <v>65.39636200000001</v>
+      </c>
+      <c r="I23">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="J23">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>79.76382166666667</v>
+      </c>
+      <c r="N23">
+        <v>239.291465</v>
+      </c>
+      <c r="O23">
+        <v>0.2832386002345773</v>
+      </c>
+      <c r="P23">
+        <v>0.2832386002345773</v>
+      </c>
+      <c r="Q23">
+        <v>1738.754585405593</v>
+      </c>
+      <c r="R23">
+        <v>15648.79126865033</v>
+      </c>
+      <c r="S23">
+        <v>0.2146265115179553</v>
+      </c>
+      <c r="T23">
+        <v>0.2146265115179553</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>21.79878733333334</v>
+      </c>
+      <c r="H24">
+        <v>65.39636200000001</v>
+      </c>
+      <c r="I24">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="J24">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>30.30225433333333</v>
+      </c>
+      <c r="N24">
+        <v>90.906763</v>
+      </c>
+      <c r="O24">
+        <v>0.1076022678200263</v>
+      </c>
+      <c r="P24">
+        <v>0.1076022678200263</v>
+      </c>
+      <c r="Q24">
+        <v>660.5523979329118</v>
+      </c>
+      <c r="R24">
+        <v>5944.971581396207</v>
+      </c>
+      <c r="S24">
+        <v>0.08153655382601938</v>
+      </c>
+      <c r="T24">
+        <v>0.08153655382601938</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>21.79878733333334</v>
+      </c>
+      <c r="H25">
+        <v>65.39636200000001</v>
+      </c>
+      <c r="I25">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="J25">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>20.36135066666667</v>
+      </c>
+      <c r="N25">
+        <v>61.084052</v>
+      </c>
+      <c r="O25">
+        <v>0.07230245920027331</v>
+      </c>
+      <c r="P25">
+        <v>0.07230245920027331</v>
+      </c>
+      <c r="Q25">
+        <v>443.8527530020916</v>
+      </c>
+      <c r="R25">
+        <v>3994.674777018824</v>
+      </c>
+      <c r="S25">
+        <v>0.05478781698353252</v>
+      </c>
+      <c r="T25">
+        <v>0.05478781698353252</v>
       </c>
     </row>
   </sheetData>
